--- a/data/trans_dic/P02E$contratada-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P02E$contratada-Dificultad-trans_dic.xlsx
@@ -682,22 +682,22 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.008082588212929334</v>
+        <v>0.008036744249686917</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.001859248575785917</v>
+        <v>0.001820675850915333</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.005393149398754633</v>
+        <v>0.005341939409300424</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.007998904205510735</v>
+        <v>0.007659510856401535</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.001142109591213919</v>
+        <v>0.001139205733963077</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.005817940546324993</v>
+        <v>0.005723706654962753</v>
       </c>
     </row>
     <row r="6">
@@ -708,29 +708,29 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05249201162309027</v>
+        <v>0.05509260291129966</v>
       </c>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>0.02590799426507947</v>
+        <v>0.02625139971204347</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04980167321393323</v>
+        <v>0.0516447783654712</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.01642112154898397</v>
+        <v>0.01604883716137519</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.03101420561577133</v>
+        <v>0.02937267936863765</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.04303478633784991</v>
+        <v>0.0434478515438387</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.01103848374749166</v>
+        <v>0.01007252501459762</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.02262495265345475</v>
+        <v>0.02326106712849712</v>
       </c>
     </row>
     <row r="7">
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.003277781811378504</v>
+        <v>0.003267447869555964</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01046685487735808</v>
+        <v>0.01058424174991605</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.009145764789155998</v>
+        <v>0.008898119441489423</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.005331877680146422</v>
+        <v>0.004389359036133898</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.001817198457806244</v>
+        <v>0.001812607434291407</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.008835204514042865</v>
+        <v>0.008438552665461894</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01041900872788021</v>
+        <v>0.009980979732378008</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02297365101875843</v>
+        <v>0.0280368332121949</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02944494853136638</v>
+        <v>0.02917028866013744</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06567459474004711</v>
+        <v>0.06734260805391727</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02567977522654915</v>
+        <v>0.02909633044793246</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03926193940713297</v>
+        <v>0.03884398677048535</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.03943064562754466</v>
+        <v>0.04134333123958302</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02020452545072976</v>
+        <v>0.02083214474537579</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.03011379744674029</v>
+        <v>0.02713502842639831</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03932686913526059</v>
+        <v>0.04102410102546838</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01071542889640338</v>
+        <v>0.01102939147842632</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01174404233428606</v>
+        <v>0.008290986804464086</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01566336783578741</v>
+        <v>0.01873668710595673</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.003413485564246294</v>
+        <v>0.003389787250772269</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.005808584138896484</v>
+        <v>0.005960190042264535</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.0187848898896345</v>
+        <v>0.01799778376450457</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.009063142970566752</v>
+        <v>0.008660405779190659</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01133596489273832</v>
+        <v>0.01041922458257705</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0230353648662285</v>
+        <v>0.02193801205336359</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06356281756484816</v>
+        <v>0.06569467850454712</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05447735093480247</v>
+        <v>0.05033549937966543</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.07167255574246237</v>
+        <v>0.07649499388641991</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.02896656275086697</v>
+        <v>0.02978782947072706</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.0340237507621075</v>
+        <v>0.03718388022461926</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.07321004686874258</v>
+        <v>0.07045088154417989</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03955162848218127</v>
+        <v>0.03658245947315704</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.03508452731056204</v>
+        <v>0.03477848615462999</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.0625263993089003</v>
+        <v>0.06080105906864921</v>
       </c>
     </row>
     <row r="13">
@@ -1001,28 +1001,28 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01386198167605814</v>
+        <v>0.01378316113474928</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02578502542566592</v>
+        <v>0.02630579269483071</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0282584119947819</v>
+        <v>0.0272414664651399</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0</v>
+        <v>0.006742800477349842</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02311928098395842</v>
+        <v>0.02010727709089887</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02741256418389073</v>
+        <v>0.02768190006596638</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.009063256291259248</v>
+        <v>0.009026472861005268</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07719280101114162</v>
+        <v>0.08397348199839035</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.09787853873377383</v>
+        <v>0.09991035840673909</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.08876859518125148</v>
+        <v>0.09100889159496778</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1424726362863185</v>
+        <v>0.1451184967116801</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1145952239042791</v>
+        <v>0.1193713722829081</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.05865587530097834</v>
+        <v>0.05792776532341275</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.09534490291987165</v>
+        <v>0.09470561415662768</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.08364951652927176</v>
+        <v>0.0878693895222792</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.05211911810227405</v>
+        <v>0.05221487232693357</v>
       </c>
     </row>
     <row r="16">
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.009191660675973228</v>
+        <v>0.008868046593541722</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.008888667989334492</v>
+        <v>0.00797548598616795</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01322953283129762</v>
+        <v>0.01416919542648885</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01053241245185515</v>
+        <v>0.01072196978612978</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01260086563904828</v>
+        <v>0.01268941089300341</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.01296262085605094</v>
+        <v>0.0125770987865893</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01173961795709039</v>
+        <v>0.01190710961591892</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.0129067954518734</v>
+        <v>0.01233348546355006</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01549324442106231</v>
+        <v>0.01518675985305778</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03303696894215295</v>
+        <v>0.03234377386815042</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02779083767469137</v>
+        <v>0.02462484043224229</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03610975471643885</v>
+        <v>0.0359399697401743</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.02811559204184103</v>
+        <v>0.02844000475630664</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.02754917064311844</v>
+        <v>0.02832182121150427</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.03027012532560351</v>
+        <v>0.03049992961996906</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.02740358734779903</v>
+        <v>0.02661668060358545</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.02401364238746002</v>
+        <v>0.02388028707698741</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.0291709881540103</v>
+        <v>0.02920568895001205</v>
       </c>
     </row>
     <row r="19">
@@ -1402,22 +1402,22 @@
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2232</v>
+        <v>2219</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>955</v>
+        <v>935</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2424</v>
+        <v>2401</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2835</v>
+        <v>2715</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>4316</v>
+        <v>4246</v>
       </c>
     </row>
     <row r="7">
@@ -1428,29 +1428,29 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>4114</v>
+        <v>4318</v>
       </c>
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="n">
-        <v>7577</v>
+        <v>7677</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>13750</v>
+        <v>14259</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>8435</v>
+        <v>8243</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>13939</v>
+        <v>13201</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>15255</v>
+        <v>15401</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>9229</v>
+        <v>8422</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>16785</v>
+        <v>17257</v>
       </c>
     </row>
     <row r="8">
@@ -1538,28 +1538,28 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1985</v>
+        <v>2007</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>4321</v>
+        <v>4204</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1642</v>
+        <v>1352</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>6678</v>
+        <v>6378</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>5184</v>
+        <v>4966</v>
       </c>
     </row>
     <row r="11">
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>5057</v>
+        <v>6171</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>8344</v>
+        <v>8266</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>12453</v>
+        <v>12769</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>8821</v>
+        <v>9995</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>18550</v>
+        <v>18353</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>12144</v>
+        <v>12733</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>11388</v>
+        <v>11742</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>22761</v>
+        <v>20510</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>19569</v>
+        <v>20413</v>
       </c>
     </row>
     <row r="12">
@@ -1679,31 +1679,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2708</v>
+        <v>2788</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2734</v>
+        <v>1930</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2964</v>
+        <v>3545</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>979</v>
+        <v>972</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>2040</v>
+        <v>2093</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>3837</v>
+        <v>3677</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>4890</v>
+        <v>4673</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>6620</v>
+        <v>6085</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>9064</v>
+        <v>8633</v>
       </c>
     </row>
     <row r="15">
@@ -1714,31 +1714,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>16066</v>
+        <v>16605</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>12684</v>
+        <v>11719</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>13562</v>
+        <v>14474</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>8308</v>
+        <v>8544</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>11948</v>
+        <v>13058</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>14955</v>
+        <v>14392</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>21342</v>
+        <v>19740</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>20490</v>
+        <v>20311</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>24604</v>
+        <v>23925</v>
       </c>
     </row>
     <row r="16">
@@ -1826,28 +1826,28 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1966</v>
+        <v>1955</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2239</v>
+        <v>2284</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>4906</v>
+        <v>4729</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0</v>
+        <v>989</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>3655</v>
+        <v>3179</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>8647</v>
+        <v>8732</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>2077</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="19">
@@ -1858,31 +1858,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>5502</v>
+        <v>5985</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>13884</v>
+        <v>14172</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>7316</v>
+        <v>7500</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>12370</v>
+        <v>12600</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>19894</v>
+        <v>20723</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>8606</v>
+        <v>8499</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>15074</v>
+        <v>14973</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>26387</v>
+        <v>27718</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>11942</v>
+        <v>11964</v>
       </c>
     </row>
     <row r="20">
@@ -1967,31 +1967,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>5722</v>
+        <v>5521</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>8715</v>
+        <v>7820</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>9971</v>
+        <v>10679</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>10461</v>
+        <v>10650</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>19039</v>
+        <v>19172</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>14368</v>
+        <v>13941</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>18969</v>
+        <v>19239</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>32156</v>
+        <v>30727</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>28850</v>
+        <v>28280</v>
       </c>
     </row>
     <row r="23">
@@ -2002,31 +2002,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>20567</v>
+        <v>20135</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>27249</v>
+        <v>24144</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>27216</v>
+        <v>27088</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>27926</v>
+        <v>28248</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>41624</v>
+        <v>42791</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>33552</v>
+        <v>33807</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>44279</v>
+        <v>43007</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>59827</v>
+        <v>59495</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>54320</v>
+        <v>54384</v>
       </c>
     </row>
     <row r="24">
